--- a/biology/Botanique/Acétabulaire_(biologie)/Acétabulaire_(biologie).xlsx
+++ b/biology/Botanique/Acétabulaire_(biologie)/Acétabulaire_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulaire_(biologie)</t>
+          <t>Acétabulaire_(biologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les acétabulaires (genre Acetabularia) sont des algues vertes unicellulaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulaire_(biologie)</t>
+          <t>Acétabulaire_(biologie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur croissance débute par une cellule minuscule qui se fixe sur un rocher mais aussi sur des substrats comme des cordes ou d'autres algues. Elle utilise pour cela  un petit filament qui se développe verticalement formant un axe (pédicule) de quelques centimètres. Celui-ci se terminera par un chapeau qui contient des sacs assurant la reproduction de l'algue. Durant l'hiver, seule la partie basale du végétal subsiste - celle contenant le noyau. Elle régénère le pédicule et le chapeau au printemps suivant. La taille moyenne de cette unique cellule est d'environ 10 centimètres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur croissance débute par une cellule minuscule qui se fixe sur un rocher mais aussi sur des substrats comme des cordes ou d'autres algues. Elle utilise pour cela  un petit filament qui se développe verticalement formant un axe (pédicule) de quelques centimètres. Celui-ci se terminera par un chapeau qui contient des sacs assurant la reproduction de l'algue. Durant l'hiver, seule la partie basale du végétal subsiste - celle contenant le noyau. Elle régénère le pédicule et le chapeau au printemps suivant. La taille moyenne de cette unique cellule est d'environ 10 centimètres.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulaire_(biologie)</t>
+          <t>Acétabulaire_(biologie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On les rencontre dans les zones rocheuses peu profondes. 
 Certaines espèces d'acétabulaires actuelles existaient déjà pendant le Crétacé.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulaire_(biologie)</t>
+          <t>Acétabulaire_(biologie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Noms et dénominations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En anglais, on peut parfois voir la dénomination Mermaid's cup soit "tasse de sirène". En allemand elle est communément appelée Schirmchenalge, signifiant "algue parapluie"[1]. Parallèlement, elle est aussi connue sous le nom "ombrelle de mer" en français[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En anglais, on peut parfois voir la dénomination Mermaid's cup soit "tasse de sirène". En allemand elle est communément appelée Schirmchenalge, signifiant "algue parapluie". Parallèlement, elle est aussi connue sous le nom "ombrelle de mer" en français.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulaire_(biologie)</t>
+          <t>Acétabulaire_(biologie)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (29 avril 2013)[3] et World Register of Marine Species                               (29 avril 2013)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (29 avril 2013) et World Register of Marine Species                               (29 avril 2013) :
 Acetabularia acetabulum (Linnaeus) P.C.Silva (espèce type) - syn.: Acetabularia mediterranea J.V.Lamouroux, nom. illeg.
 Acetabularia caliculus J.V.Lamouroux
 Acetabularia crenulata J.V.Lamouroux
@@ -621,7 +641,7 @@
 Acetabularia ryukyuensis Okamura &amp; Yamada
 Acetabularia schenckii K.Möbius
 Acetabularia toxasii Troño, Santiago &amp; Ganzon-Fortes
-Selon ITIS      (29 avril 2013)[5] :
+Selon ITIS      (29 avril 2013) :
 Acetabularia acetabulum (Linnaeus) Silva
 Acetabularia clavata Yamada
 Acetabularia crenulata
@@ -642,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ac%C3%A9tabulaire_(biologie)</t>
+          <t>Acétabulaire_(biologie)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,7 +680,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Cycle de vie de Acetabularia
